--- a/biology/Zoologie/Austrotengella_wrighti/Austrotengella_wrighti.xlsx
+++ b/biology/Zoologie/Austrotengella_wrighti/Austrotengella_wrighti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrotengella wrighti est une espèce d'araignées aranéomorphes de la famille des Zoropsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrotengella wrighti est une espèce d'araignées aranéomorphes de la famille des Zoropsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud dans la forêt d'État de Beaury. et au Queensland sur le mont French.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud dans la forêt d'État de Beaury. et au Queensland sur le mont French.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 3,94 mm de long sur 3,25 mm et l'abdomen 3,88 mm de long sur 2,31 mm. La carapace de la femelle paratype mesure 3,60 mm de long sur 3,80 mm et l'abdomen 3,88 mm de long sur 2,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 3,94 mm de long sur 3,25 mm et l'abdomen 3,88 mm de long sur 2,31 mm. La carapace de la femelle paratype mesure 3,60 mm de long sur 3,80 mm et l'abdomen 3,88 mm de long sur 2,60 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jeffrey Wright[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jeffrey Wright.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 2012 : Revisions of Australian ground-hunting spiders. V. A new lycosoid genus from eastern Australia (Araneae: Tengellidae). Zootaxa, no 3305, p. 28-52.</t>
         </is>
